--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Reln-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Reln-Itgb1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H2">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I2">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J2">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>11.66900831992756</v>
+        <v>3.807352874058668</v>
       </c>
       <c r="R2">
-        <v>105.021074879348</v>
+        <v>34.266175866528</v>
       </c>
       <c r="S2">
-        <v>0.01373252641975033</v>
+        <v>0.008197773965076177</v>
       </c>
       <c r="T2">
-        <v>0.01373252641975033</v>
+        <v>0.008197773965076177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H3">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I3">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J3">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>12.299567029667</v>
+        <v>4.119488998881</v>
       </c>
       <c r="R3">
-        <v>110.696103267003</v>
+        <v>37.075400989929</v>
       </c>
       <c r="S3">
-        <v>0.01447459154673401</v>
+        <v>0.008869847576918876</v>
       </c>
       <c r="T3">
-        <v>0.014474591546734</v>
+        <v>0.008869847576918876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H4">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I4">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J4">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>7.946616214629889</v>
+        <v>1.775857697380333</v>
       </c>
       <c r="R4">
-        <v>71.519545931669</v>
+        <v>15.982719276423</v>
       </c>
       <c r="S4">
-        <v>0.009351875851237614</v>
+        <v>0.003823674999093425</v>
       </c>
       <c r="T4">
-        <v>0.009351875851237614</v>
+        <v>0.003823674999093426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H5">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I5">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J5">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>4.257726038218888</v>
+        <v>1.394532087979667</v>
       </c>
       <c r="R5">
-        <v>38.31953434396999</v>
+        <v>12.550788791817</v>
       </c>
       <c r="S5">
-        <v>0.005010651608504705</v>
+        <v>0.003002626555104773</v>
       </c>
       <c r="T5">
-        <v>0.005010651608504705</v>
+        <v>0.003002626555104773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.07127766666666667</v>
+        <v>0.023873</v>
       </c>
       <c r="H6">
-        <v>0.213833</v>
+        <v>0.071619</v>
       </c>
       <c r="I6">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="J6">
-        <v>0.04986387490716095</v>
+        <v>0.02747901635872243</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>6.198162078761222</v>
+        <v>1.665051414568</v>
       </c>
       <c r="R6">
-        <v>55.78345870885099</v>
+        <v>14.985462731112</v>
       </c>
       <c r="S6">
-        <v>0.007294229480934293</v>
+        <v>0.003585093262529173</v>
       </c>
       <c r="T6">
-        <v>0.007294229480934293</v>
+        <v>0.003585093262529174</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.107054</v>
       </c>
       <c r="I7">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J7">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>5.842007625958222</v>
+        <v>5.691120437027555</v>
       </c>
       <c r="R7">
-        <v>52.57806863362399</v>
+        <v>51.220083933248</v>
       </c>
       <c r="S7">
-        <v>0.006875093569935191</v>
+        <v>0.01225379430119472</v>
       </c>
       <c r="T7">
-        <v>0.006875093569935191</v>
+        <v>0.01225379430119473</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.107054</v>
       </c>
       <c r="I8">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J8">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>6.157692445945999</v>
@@ -948,10 +948,10 @@
         <v>55.419232013514</v>
       </c>
       <c r="S8">
-        <v>0.007246603299977375</v>
+        <v>0.01325839040616978</v>
       </c>
       <c r="T8">
-        <v>0.007246603299977374</v>
+        <v>0.01325839040616978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.107054</v>
       </c>
       <c r="I9">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J9">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>3.978417981513555</v>
+        <v>2.654500480813111</v>
       </c>
       <c r="R9">
-        <v>35.805761833622</v>
+        <v>23.890504327318</v>
       </c>
       <c r="S9">
-        <v>0.004681951417126409</v>
+        <v>0.005715518275219529</v>
       </c>
       <c r="T9">
-        <v>0.00468195141712641</v>
+        <v>0.005715518275219531</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.107054</v>
       </c>
       <c r="I10">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J10">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>2.131600844095555</v>
+        <v>2.084506040946889</v>
       </c>
       <c r="R10">
-        <v>19.18440759686</v>
+        <v>18.760554368522</v>
       </c>
       <c r="S10">
-        <v>0.002508547779327151</v>
+        <v>0.004488238920261192</v>
       </c>
       <c r="T10">
-        <v>0.002508547779327151</v>
+        <v>0.004488238920261193</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.107054</v>
       </c>
       <c r="I11">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="J11">
-        <v>0.02496400117994513</v>
+        <v>0.04107483513127341</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>3.103066613570888</v>
+        <v>2.488870469221333</v>
       </c>
       <c r="R11">
-        <v>27.927599522138</v>
+        <v>22.399834222992</v>
       </c>
       <c r="S11">
-        <v>0.003651805113579007</v>
+        <v>0.005358893228428183</v>
       </c>
       <c r="T11">
-        <v>0.003651805113579007</v>
+        <v>0.005358893228428185</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H12">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I12">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J12">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>2.68651367932</v>
+        <v>1.795945240010667</v>
       </c>
       <c r="R12">
-        <v>24.17862311388</v>
+        <v>16.163507160096</v>
       </c>
       <c r="S12">
-        <v>0.00316159000549171</v>
+        <v>0.003866926344436092</v>
       </c>
       <c r="T12">
-        <v>0.00316159000549171</v>
+        <v>0.003866926344436092</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H13">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I13">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J13">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>2.83168493577</v>
+        <v>1.943181234717</v>
       </c>
       <c r="R13">
-        <v>25.48516442193</v>
+        <v>17.488631112453</v>
       </c>
       <c r="S13">
-        <v>0.003332432982026699</v>
+        <v>0.004183946448443155</v>
       </c>
       <c r="T13">
-        <v>0.003332432982026699</v>
+        <v>0.004183946448443156</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H14">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I14">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J14">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>1.82952077671</v>
+        <v>0.8376799535123333</v>
       </c>
       <c r="R14">
-        <v>16.46568699039</v>
+        <v>7.539119581611</v>
       </c>
       <c r="S14">
-        <v>0.002153048632140164</v>
+        <v>0.001803644458794079</v>
       </c>
       <c r="T14">
-        <v>0.002153048632140165</v>
+        <v>0.00180364445879408</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H15">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I15">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J15">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>0.9802409022999999</v>
+        <v>0.6578069720076667</v>
       </c>
       <c r="R15">
-        <v>8.822168120699999</v>
+        <v>5.920262748069</v>
       </c>
       <c r="S15">
-        <v>0.001153584239507871</v>
+        <v>0.001416352265615333</v>
       </c>
       <c r="T15">
-        <v>0.001153584239507871</v>
+        <v>0.001416352265615333</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01641</v>
+        <v>0.011261</v>
       </c>
       <c r="H16">
-        <v>0.04923</v>
+        <v>0.033783</v>
       </c>
       <c r="I16">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260307</v>
       </c>
       <c r="J16">
-        <v>0.01147997999223475</v>
+        <v>0.01296197391260308</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>1.42698049009</v>
+        <v>0.7854121383760001</v>
       </c>
       <c r="R16">
-        <v>12.84282441081</v>
+        <v>7.068709245384</v>
       </c>
       <c r="S16">
-        <v>0.001679324133068307</v>
+        <v>0.001691104395314414</v>
       </c>
       <c r="T16">
-        <v>0.001679324133068307</v>
+        <v>0.001691104395314415</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H17">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I17">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J17">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>213.8197492496008</v>
+        <v>127.2605000222578</v>
       </c>
       <c r="R17">
-        <v>1924.377743246408</v>
+        <v>1145.34450020032</v>
       </c>
       <c r="S17">
-        <v>0.2516310962449261</v>
+        <v>0.2740100138795188</v>
       </c>
       <c r="T17">
-        <v>0.2516310962449261</v>
+        <v>0.2740100138795188</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H18">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I18">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J18">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>225.3739363327819</v>
+        <v>137.69362787614</v>
       </c>
       <c r="R18">
-        <v>2028.365426995038</v>
+        <v>1239.24265088526</v>
       </c>
       <c r="S18">
-        <v>0.2652284967290409</v>
+        <v>0.2964740267314961</v>
       </c>
       <c r="T18">
-        <v>0.2652284967290409</v>
+        <v>0.2964740267314961</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H19">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I19">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J19">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>145.6116440926082</v>
+        <v>59.35791769573556</v>
       </c>
       <c r="R19">
-        <v>1310.504796833474</v>
+        <v>534.22125926162</v>
       </c>
       <c r="S19">
-        <v>0.1713612412213481</v>
+        <v>0.1278060658949411</v>
       </c>
       <c r="T19">
-        <v>0.1713612412213481</v>
+        <v>0.1278060658949411</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H20">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I20">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J20">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>78.0174192104022</v>
+        <v>46.61213622266445</v>
       </c>
       <c r="R20">
-        <v>702.1567728936199</v>
+        <v>419.50922600398</v>
       </c>
       <c r="S20">
-        <v>0.09181382351728724</v>
+        <v>0.1003625798350034</v>
       </c>
       <c r="T20">
-        <v>0.09181382351728724</v>
+        <v>0.1003625798350035</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.306072666666666</v>
+        <v>0.7979533333333334</v>
       </c>
       <c r="H21">
-        <v>3.918218</v>
+        <v>2.39386</v>
       </c>
       <c r="I21">
-        <v>0.9136921439206591</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="J21">
-        <v>0.9136921439206592</v>
+        <v>0.9184841745974011</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>113.5734438740495</v>
+        <v>55.65422554458667</v>
       </c>
       <c r="R21">
-        <v>1022.160994866446</v>
+        <v>500.88802990128</v>
       </c>
       <c r="S21">
-        <v>0.1336574862080568</v>
+        <v>0.1198314882564415</v>
       </c>
       <c r="T21">
-        <v>0.1336574862080567</v>
+        <v>0.1198314882564416</v>
       </c>
     </row>
   </sheetData>
